--- a/CHUBAO.xlsx
+++ b/CHUBAO.xlsx
@@ -1972,7 +1972,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B54"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2042,7 +2042,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
@@ -2062,7 +2062,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>68</v>
@@ -2082,7 +2082,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>68</v>
@@ -2102,7 +2102,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>71</v>
@@ -2122,7 +2122,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>68</v>
@@ -2142,7 +2142,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>71</v>
@@ -2162,7 +2162,7 @@
         <v>92</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>71</v>
@@ -2182,7 +2182,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>71</v>
@@ -2202,7 +2202,7 @@
         <v>104</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>71</v>
@@ -2222,7 +2222,7 @@
         <v>106</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>71</v>
@@ -2242,7 +2242,7 @@
         <v>112</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>71</v>
@@ -2262,7 +2262,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -2282,7 +2282,7 @@
         <v>117</v>
       </c>
       <c r="B15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>71</v>
@@ -2302,7 +2302,7 @@
         <v>122</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>71</v>
@@ -2322,7 +2322,7 @@
         <v>205</v>
       </c>
       <c r="B17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>204</v>
@@ -2342,7 +2342,7 @@
         <v>129</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>71</v>
@@ -2362,7 +2362,7 @@
         <v>131</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>71</v>
@@ -2382,7 +2382,7 @@
         <v>133</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>71</v>
@@ -2402,7 +2402,7 @@
         <v>135</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>71</v>
@@ -2422,7 +2422,7 @@
         <v>138</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>71</v>
@@ -2442,7 +2442,7 @@
         <v>147</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
@@ -2462,7 +2462,7 @@
         <v>149</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>71</v>
@@ -2482,7 +2482,7 @@
         <v>151</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
@@ -2502,7 +2502,7 @@
         <v>153</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>71</v>
@@ -2522,7 +2522,7 @@
         <v>170</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>71</v>
@@ -2542,7 +2542,7 @@
         <v>162</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>71</v>
@@ -2562,7 +2562,7 @@
         <v>158</v>
       </c>
       <c r="B29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>156</v>
@@ -2582,7 +2582,7 @@
         <v>160</v>
       </c>
       <c r="B30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>156</v>
@@ -2602,7 +2602,7 @@
         <v>165</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>156</v>
@@ -2622,7 +2622,7 @@
         <v>167</v>
       </c>
       <c r="B32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>156</v>
@@ -2642,7 +2642,7 @@
         <v>176</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>71</v>
@@ -2662,7 +2662,7 @@
         <v>177</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>71</v>
@@ -2682,7 +2682,7 @@
         <v>178</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>71</v>
@@ -2702,7 +2702,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>71</v>
@@ -2722,7 +2722,7 @@
         <v>173</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>172</v>
@@ -2742,7 +2742,7 @@
         <v>175</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>174</v>
@@ -2762,7 +2762,7 @@
         <v>183</v>
       </c>
       <c r="B39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>71</v>
@@ -2782,7 +2782,7 @@
         <v>185</v>
       </c>
       <c r="B40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>71</v>
@@ -2802,7 +2802,7 @@
         <v>187</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>71</v>
@@ -2822,7 +2822,7 @@
         <v>189</v>
       </c>
       <c r="B42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>71</v>
@@ -2842,7 +2842,7 @@
         <v>191</v>
       </c>
       <c r="B43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>71</v>
@@ -2862,7 +2862,7 @@
         <v>196</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>71</v>
@@ -2882,7 +2882,7 @@
         <v>198</v>
       </c>
       <c r="B45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>71</v>
@@ -2902,7 +2902,7 @@
         <v>200</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>71</v>
@@ -2922,7 +2922,7 @@
         <v>202</v>
       </c>
       <c r="B47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>71</v>
@@ -2942,7 +2942,7 @@
         <v>210</v>
       </c>
       <c r="B48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>71</v>
@@ -2962,7 +2962,7 @@
         <v>211</v>
       </c>
       <c r="B49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>71</v>
@@ -2982,7 +2982,7 @@
         <v>214</v>
       </c>
       <c r="B50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>71</v>
@@ -3002,7 +3002,7 @@
         <v>216</v>
       </c>
       <c r="B51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>71</v>
@@ -3022,7 +3022,7 @@
         <v>218</v>
       </c>
       <c r="B52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>71</v>
@@ -3042,7 +3042,7 @@
         <v>220</v>
       </c>
       <c r="B53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>71</v>
@@ -3062,7 +3062,7 @@
         <v>222</v>
       </c>
       <c r="B54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>71</v>

--- a/CHUBAO.xlsx
+++ b/CHUBAO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CHUBAO数据生成" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="230">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,10 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>student已毕业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>U005_student已毕业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,6 +928,18 @@
   </si>
   <si>
     <t>上笔未还的触宝订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触宝成人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触宝成人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触宝成人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>49</v>
@@ -1363,7 +1371,7 @@
         <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1631,15 +1639,15 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -1787,7 +1795,7 @@
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>56</v>
@@ -1881,7 +1889,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45" s="8"/>
       <c r="M45" s="2" t="s">
@@ -1893,7 +1901,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" s="8"/>
       <c r="M46" s="2" t="s">
@@ -1971,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2016,7 +2024,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -2319,16 +2327,16 @@
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>110</v>
@@ -2522,10 +2530,10 @@
         <v>170</v>
       </c>
       <c r="B27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>157</v>
@@ -2542,10 +2550,10 @@
         <v>162</v>
       </c>
       <c r="B28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>161</v>
@@ -2639,13 +2647,13 @@
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>157</v>
@@ -2659,13 +2667,13 @@
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>159</v>
@@ -2679,13 +2687,13 @@
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>169</v>
@@ -2699,13 +2707,13 @@
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>161</v>
@@ -2719,36 +2727,36 @@
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>171</v>
@@ -2759,7 +2767,7 @@
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -2768,10 +2776,10 @@
         <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>77</v>
@@ -2779,7 +2787,7 @@
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -2788,10 +2796,10 @@
         <v>71</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>77</v>
@@ -2799,7 +2807,7 @@
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -2808,10 +2816,10 @@
         <v>71</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>76</v>
@@ -2819,7 +2827,7 @@
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -2828,10 +2836,10 @@
         <v>71</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>76</v>
@@ -2839,7 +2847,7 @@
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
@@ -2848,10 +2856,10 @@
         <v>71</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>76</v>
@@ -2859,7 +2867,7 @@
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
@@ -2868,10 +2876,10 @@
         <v>71</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>77</v>
@@ -2879,7 +2887,7 @@
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -2888,10 +2896,10 @@
         <v>71</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>76</v>
@@ -2899,7 +2907,7 @@
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -2908,10 +2916,10 @@
         <v>71</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>77</v>
@@ -2919,7 +2927,7 @@
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -2928,10 +2936,10 @@
         <v>71</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>76</v>
@@ -2939,7 +2947,7 @@
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -2948,10 +2956,10 @@
         <v>71</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>77</v>
@@ -2959,7 +2967,7 @@
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -2968,10 +2976,10 @@
         <v>71</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>76</v>
@@ -2979,7 +2987,7 @@
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -2988,10 +2996,10 @@
         <v>71</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>76</v>
@@ -2999,7 +3007,7 @@
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -3008,10 +3016,10 @@
         <v>71</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>76</v>
@@ -3019,7 +3027,7 @@
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -3028,10 +3036,10 @@
         <v>71</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>77</v>
@@ -3039,7 +3047,7 @@
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -3048,10 +3056,10 @@
         <v>71</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>77</v>
@@ -3059,7 +3067,7 @@
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -3068,10 +3076,10 @@
         <v>71</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>77</v>

--- a/CHUBAO.xlsx
+++ b/CHUBAO.xlsx
@@ -1979,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2530,7 +2530,7 @@
         <v>170</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>227</v>
@@ -2550,7 +2550,7 @@
         <v>162</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>227</v>
@@ -2650,7 +2650,7 @@
         <v>175</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>227</v>
@@ -2670,7 +2670,7 @@
         <v>176</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>227</v>
@@ -2690,7 +2690,7 @@
         <v>177</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>228</v>
@@ -2710,7 +2710,7 @@
         <v>178</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>229</v>
@@ -2730,7 +2730,7 @@
         <v>172</v>
       </c>
       <c r="B37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>229</v>
